--- a/similarities/split_global/harmonic_similarity_timestamps_47.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_47.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['F:7', 'Bb', 'Bb:7/3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['C:7', 'F:maj', 'F:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
+          <t>('0:00:10.080000', '0:00:11.390000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:17.940000')]</t>
+          <t>('0:01:08.540000', '0:01:22.320000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=10.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.54</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+          <t>('0:00:01.150000', '0:00:05.734000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['E:7/A', 'A:min', 'D:min/A']]</t>
+          <t>['D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D:min', 'F', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:00:25.260000', '0:00:33.600000')]</t>
+          <t>('0:00:24.800000', '0:00:31.340000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000'), ('0:00:23.400000', '0:00:31.320000')]</t>
+          <t>('0:00:33.059000', '0:00:40.513000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=24.8</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=33.059</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:7']]</t>
+          <t>['F:min', 'G:hdim7', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:03.050000', '0:00:08.260000')]</t>
+          <t>('0:01:37.620000', '0:01:53.780000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.680000', '0:00:03.940000')]</t>
+          <t>('0:00:45.730000', '0:01:02.370000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=3.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=97.62</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=2.68']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=45.73</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:11.100000', '0:00:21.800000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:23.280000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=11.1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:42.528000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
+          <t>['B', 'E/5', 'B']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:21.740249', '0:00:26.767369')]</t>
+          <t>('0:00:55.629773', '0:01:07.541609')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5']]</t>
+          <t>['Bb', 'F:7', 'Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:31.898979', '0:00:34.035215')]</t>
+          <t>('0:00:07.590000', '0:00:15.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000')]</t>
+          <t>('0:00:50.130000', '0:01:05.020000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.898979']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:01:35.020000', '0:01:47.700000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:15.880000', '0:00:17.370000')]</t>
+          <t>('0:01:02.380000', '0:01:07.200000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=95.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=62.38</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F', 'C/3', 'D:min7'], ['C', 'F/5', 'C']]</t>
+          <t>['D:7', 'G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.837000', '0:01:05.890000'), ('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:16.560000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:04.220000', '0:01:06.980000'), ('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:41.030000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=63.837', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=16.56</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=64.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=41.03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:32.074829', '0:00:37.705668')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+          <t>('0:00:15.940000', '0:00:24.900000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:14.450219', '0:00:23.088042')]</t>
+          <t>('0:00:41.080000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=15.94</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.08</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'A:7/3', 'D'], ['A', 'E', 'A'], ['A:7/3', 'D', 'A']]</t>
+          <t>['G', 'G:min', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['Db/3', 'Db:min/b3', 'Ab/b5']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:14.541510', '0:00:23.411533'), ('0:00:00.421247', '0:00:05.746892'), ('0:00:18.954550', '0:00:24.340331')]</t>
+          <t>('0:01:02.879563', '0:01:11.679925')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:20.780000', '0:00:31.600000'), ('0:00:00.780000', '0:00:24.860000'), ('0:01:10.740000', '0:01:13.740000')]</t>
+          <t>('0:00:04.300000', '0:00:05.850000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=18.95455']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=62.879563</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=20.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=70.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=4.3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A', 'E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['C/5', 'G', 'C/5', 'G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:04.605000', '0:00:21.095000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:18', '0:00:26.460000')]</t>
+          <t>('0:00:12.094553', '0:00:20.193974')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:01:02.380000', '0:01:07.200000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:30.760000', '0:00:37.720000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=62.38</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=30.76</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
